--- a/Hardware/PCB/stepper driver/stepper driver.pos.xlsx
+++ b/Hardware/PCB/stepper driver/stepper driver.pos.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\GitHub\harp-tech\device.stepperdriver\Hardware\PCB\stepper driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65D27E83-61B5-47D3-A658-D46EEBE15CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26571C36-65A6-427F-87EA-B47F59908FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="4110" windowWidth="12645" windowHeight="11295"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stepper driver-all-pos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="273">
   <si>
     <t>Ref</t>
   </si>
@@ -833,12 +833,18 @@
   </si>
   <si>
     <t>Oscillator_SMD_4Pin_3.2x2.5mm</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>10u 25V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1672,12 +1678,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3983,19 +3987,19 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="D101">
-        <v>199.86259999999999</v>
+        <v>99.05</v>
       </c>
       <c r="E101">
-        <v>-56.86</v>
+        <v>-71.099999999999994</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4006,7 +4010,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -4015,13 +4019,13 @@
         <v>9</v>
       </c>
       <c r="D102">
-        <v>97.9</v>
+        <v>199.86259999999999</v>
       </c>
       <c r="E102">
-        <v>-73.5</v>
+        <v>-56.86</v>
       </c>
       <c r="F102">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G102" t="s">
         <v>95</v>
@@ -4029,10 +4033,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
@@ -4041,7 +4045,7 @@
         <v>97.9</v>
       </c>
       <c r="E103">
-        <v>-75.849999999999994</v>
+        <v>-73.5</v>
       </c>
       <c r="F103">
         <v>180</v>
@@ -4052,19 +4056,19 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
       </c>
       <c r="D104">
-        <v>195.5</v>
+        <v>97.9</v>
       </c>
       <c r="E104">
-        <v>-62.274999999999999</v>
+        <v>-75.849999999999994</v>
       </c>
       <c r="F104">
         <v>180</v>
@@ -4075,22 +4079,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D105">
-        <v>104.5</v>
+        <v>195.5</v>
       </c>
       <c r="E105">
-        <v>-83.15</v>
+        <v>-62.274999999999999</v>
       </c>
       <c r="F105">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G105" t="s">
         <v>95</v>
@@ -4098,7 +4102,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B106" t="s">
         <v>123</v>
@@ -4107,13 +4111,13 @@
         <v>124</v>
       </c>
       <c r="D106">
-        <v>105.4</v>
+        <v>104.5</v>
       </c>
       <c r="E106">
-        <v>-74.2</v>
+        <v>-83.15</v>
       </c>
       <c r="F106">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="G106" t="s">
         <v>95</v>
@@ -4121,22 +4125,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D107">
-        <v>102.65</v>
+        <v>105.4</v>
       </c>
       <c r="E107">
-        <v>-81.900000000000006</v>
+        <v>-74.2</v>
       </c>
       <c r="F107">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G107" t="s">
         <v>95</v>
@@ -4144,7 +4148,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
@@ -4153,13 +4157,13 @@
         <v>9</v>
       </c>
       <c r="D108">
-        <v>105.6</v>
+        <v>102.65</v>
       </c>
       <c r="E108">
-        <v>-72.3</v>
+        <v>-81.900000000000006</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="G108" t="s">
         <v>95</v>
@@ -4167,19 +4171,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
       </c>
       <c r="D109">
-        <v>196.50900999999999</v>
+        <v>105.6</v>
       </c>
       <c r="E109">
-        <v>-73.403599999999997</v>
+        <v>-72.3</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -4190,7 +4194,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -4199,13 +4203,13 @@
         <v>9</v>
       </c>
       <c r="D110">
-        <v>150.55000000000001</v>
+        <v>196.50900999999999</v>
       </c>
       <c r="E110">
-        <v>-53.65</v>
+        <v>-73.403599999999997</v>
       </c>
       <c r="F110">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G110" t="s">
         <v>95</v>
@@ -4213,22 +4217,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D111">
-        <v>170.65</v>
+        <v>150.55000000000001</v>
       </c>
       <c r="E111">
-        <v>-53.6</v>
+        <v>-53.65</v>
       </c>
       <c r="F111">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G111" t="s">
         <v>95</v>
@@ -4236,22 +4240,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D112">
-        <v>159.50200000000001</v>
+        <v>170.65</v>
       </c>
       <c r="E112">
-        <v>-42.128</v>
+        <v>-53.6</v>
       </c>
       <c r="F112">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G112" t="s">
         <v>95</v>
@@ -4259,7 +4263,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
@@ -4268,13 +4272,13 @@
         <v>9</v>
       </c>
       <c r="D113">
-        <v>159.24799999999999</v>
+        <v>159.50200000000001</v>
       </c>
       <c r="E113">
-        <v>-53.558</v>
+        <v>-42.128</v>
       </c>
       <c r="F113">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G113" t="s">
         <v>95</v>
@@ -4282,19 +4286,19 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D114">
-        <v>162.69999999999999</v>
+        <v>159.24799999999999</v>
       </c>
       <c r="E114">
-        <v>-53.8</v>
+        <v>-53.558</v>
       </c>
       <c r="F114">
         <v>-90</v>
@@ -4305,22 +4309,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D115">
-        <v>155.98439999999999</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="E115">
-        <v>-53.522799999999997</v>
+        <v>-53.8</v>
       </c>
       <c r="F115">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="G115" t="s">
         <v>95</v>
@@ -4328,7 +4332,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -4337,13 +4341,13 @@
         <v>9</v>
       </c>
       <c r="D116">
-        <v>127.50901</v>
+        <v>155.98439999999999</v>
       </c>
       <c r="E116">
-        <v>-84.403599999999997</v>
+        <v>-53.522799999999997</v>
       </c>
       <c r="F116">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G116" t="s">
         <v>95</v>
@@ -4351,7 +4355,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -4360,10 +4364,10 @@
         <v>9</v>
       </c>
       <c r="D117">
-        <v>157.55000000000001</v>
+        <v>127.50901</v>
       </c>
       <c r="E117">
-        <v>-83.35</v>
+        <v>-84.403599999999997</v>
       </c>
       <c r="F117">
         <v>-90</v>
@@ -4374,7 +4378,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -4383,10 +4387,10 @@
         <v>9</v>
       </c>
       <c r="D118">
-        <v>114.3</v>
+        <v>157.55000000000001</v>
       </c>
       <c r="E118">
-        <v>-86</v>
+        <v>-83.35</v>
       </c>
       <c r="F118">
         <v>-90</v>
@@ -4397,7 +4401,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
@@ -4406,7 +4410,7 @@
         <v>9</v>
       </c>
       <c r="D119">
-        <v>147.35</v>
+        <v>114.3</v>
       </c>
       <c r="E119">
         <v>-86</v>
@@ -4420,19 +4424,19 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D120">
-        <v>108.8</v>
+        <v>147.35</v>
       </c>
       <c r="E120">
-        <v>-95.9</v>
+        <v>-86</v>
       </c>
       <c r="F120">
         <v>-90</v>
@@ -4443,19 +4447,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D121">
-        <v>116.1</v>
+        <v>108.8</v>
       </c>
       <c r="E121">
-        <v>-85.5</v>
+        <v>-95.9</v>
       </c>
       <c r="F121">
         <v>-90</v>
@@ -4466,19 +4470,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B122" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C122" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D122">
-        <v>106.69199999999999</v>
+        <v>116.1</v>
       </c>
       <c r="E122">
-        <v>-92.971599999999995</v>
+        <v>-85.5</v>
       </c>
       <c r="F122">
         <v>-90</v>
@@ -4489,19 +4493,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B123" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
       </c>
       <c r="D123">
-        <v>142.85901000000001</v>
+        <v>106.69199999999999</v>
       </c>
       <c r="E123">
-        <v>-95.553600000000003</v>
+        <v>-92.971599999999995</v>
       </c>
       <c r="F123">
         <v>-90</v>
@@ -4512,19 +4516,19 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B124" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D124">
-        <v>149.30000000000001</v>
+        <v>142.85901000000001</v>
       </c>
       <c r="E124">
-        <v>-85.8</v>
+        <v>-95.553600000000003</v>
       </c>
       <c r="F124">
         <v>-90</v>
@@ -4535,19 +4539,19 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B125" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C125" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D125">
-        <v>141.04800700000001</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="E125">
-        <v>-92.971599999999995</v>
+        <v>-85.8</v>
       </c>
       <c r="F125">
         <v>-90</v>
@@ -4558,19 +4562,19 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D126">
-        <v>130.65</v>
+        <v>141.04800700000001</v>
       </c>
       <c r="E126">
-        <v>-86</v>
+        <v>-92.971599999999995</v>
       </c>
       <c r="F126">
         <v>-90</v>
@@ -4581,7 +4585,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -4590,7 +4594,7 @@
         <v>9</v>
       </c>
       <c r="D127">
-        <v>163.95</v>
+        <v>130.65</v>
       </c>
       <c r="E127">
         <v>-86</v>
@@ -4604,19 +4608,19 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D128">
-        <v>125.75901</v>
+        <v>163.95</v>
       </c>
       <c r="E128">
-        <v>-95.553600000000003</v>
+        <v>-86</v>
       </c>
       <c r="F128">
         <v>-90</v>
@@ -4627,19 +4631,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D129">
-        <v>132.35</v>
+        <v>125.75901</v>
       </c>
       <c r="E129">
-        <v>-85.65</v>
+        <v>-95.553600000000003</v>
       </c>
       <c r="F129">
         <v>-90</v>
@@ -4650,19 +4654,19 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C130" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D130">
-        <v>123.970004</v>
+        <v>132.35</v>
       </c>
       <c r="E130">
-        <v>-92.971599999999995</v>
+        <v>-85.65</v>
       </c>
       <c r="F130">
         <v>-90</v>
@@ -4673,19 +4677,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C131" t="s">
         <v>124</v>
       </c>
       <c r="D131">
-        <v>160.05000000000001</v>
+        <v>123.970004</v>
       </c>
       <c r="E131">
-        <v>-95.3</v>
+        <v>-92.971599999999995</v>
       </c>
       <c r="F131">
         <v>-90</v>
@@ -4696,19 +4700,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D132">
-        <v>165.85</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="E132">
-        <v>-85.55</v>
+        <v>-95.3</v>
       </c>
       <c r="F132">
         <v>-90</v>
@@ -4719,19 +4723,19 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C133" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D133">
-        <v>158.00900999999999</v>
+        <v>165.85</v>
       </c>
       <c r="E133">
-        <v>-93.303600000000003</v>
+        <v>-85.55</v>
       </c>
       <c r="F133">
         <v>-90</v>
@@ -4742,19 +4746,19 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B134" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C134" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="D134">
-        <v>166.75360000000001</v>
+        <v>158.00900999999999</v>
       </c>
       <c r="E134">
-        <v>-34.151600000000002</v>
+        <v>-93.303600000000003</v>
       </c>
       <c r="F134">
         <v>-90</v>
@@ -4765,7 +4769,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B135" t="s">
         <v>162</v>
@@ -4774,7 +4778,7 @@
         <v>163</v>
       </c>
       <c r="D135">
-        <v>154.25360000000001</v>
+        <v>166.75360000000001</v>
       </c>
       <c r="E135">
         <v>-34.151600000000002</v>
@@ -4788,22 +4792,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B136" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C136" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D136">
-        <v>86.77</v>
+        <v>154.25360000000001</v>
       </c>
       <c r="E136">
-        <v>-45.387</v>
+        <v>-34.151600000000002</v>
       </c>
       <c r="F136">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G136" t="s">
         <v>95</v>
@@ -4811,19 +4815,19 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B137" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D137">
-        <v>95.15</v>
+        <v>86.77</v>
       </c>
       <c r="E137">
-        <v>-45.1</v>
+        <v>-45.387</v>
       </c>
       <c r="F137">
         <v>90</v>
@@ -4834,7 +4838,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B138" t="s">
         <v>169</v>
@@ -4843,13 +4847,13 @@
         <v>170</v>
       </c>
       <c r="D138">
-        <v>97.3</v>
+        <v>95.15</v>
       </c>
       <c r="E138">
-        <v>-55.75</v>
+        <v>-45.1</v>
       </c>
       <c r="F138">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G138" t="s">
         <v>95</v>
@@ -4857,22 +4861,22 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B139" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C139" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D139">
-        <v>106.5</v>
+        <v>97.3</v>
       </c>
       <c r="E139">
-        <v>-53.05</v>
+        <v>-55.75</v>
       </c>
       <c r="F139">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G139" t="s">
         <v>95</v>
@@ -4880,22 +4884,22 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B140" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C140" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D140">
-        <v>106.65</v>
+        <v>106.5</v>
       </c>
       <c r="E140">
-        <v>-60.25</v>
+        <v>-53.05</v>
       </c>
       <c r="F140">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G140" t="s">
         <v>95</v>
@@ -4903,22 +4907,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B141" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D141">
-        <v>130.028807</v>
+        <v>106.65</v>
       </c>
       <c r="E141">
-        <v>-67.533199999999994</v>
+        <v>-60.25</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G141" t="s">
         <v>95</v>
@@ -4926,22 +4930,22 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B142" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C142" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D142">
-        <v>179.45</v>
+        <v>130.028807</v>
       </c>
       <c r="E142">
-        <v>-82.237499999999997</v>
+        <v>-67.533199999999994</v>
       </c>
       <c r="F142">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
         <v>95</v>
@@ -4949,22 +4953,22 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B143" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C143" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D143">
-        <v>193.38560000000001</v>
+        <v>179.45</v>
       </c>
       <c r="E143">
-        <v>-42.7376</v>
+        <v>-82.237499999999997</v>
       </c>
       <c r="F143">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G143" t="s">
         <v>95</v>
@@ -4972,22 +4976,22 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B144" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C144" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D144">
-        <v>107.15</v>
+        <v>193.38560000000001</v>
       </c>
       <c r="E144">
-        <v>-78.231250000000003</v>
+        <v>-42.7376</v>
       </c>
       <c r="F144">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G144" t="s">
         <v>95</v>
@@ -4995,22 +4999,22 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B145" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C145" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D145">
-        <v>191.584</v>
+        <v>107.15</v>
       </c>
       <c r="E145">
-        <v>-67.69</v>
+        <v>-78.231250000000003</v>
       </c>
       <c r="F145">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G145" t="s">
         <v>95</v>
@@ -5018,22 +5022,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B146" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C146" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D146">
-        <v>160.02799999999999</v>
+        <v>191.584</v>
       </c>
       <c r="E146">
-        <v>-45.851999999999997</v>
+        <v>-67.69</v>
       </c>
       <c r="F146">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="G146" t="s">
         <v>95</v>
@@ -5041,7 +5045,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B147" t="s">
         <v>193</v>
@@ -5053,7 +5057,7 @@
         <v>160.02799999999999</v>
       </c>
       <c r="E147">
-        <v>-50.3</v>
+        <v>-45.851999999999997</v>
       </c>
       <c r="F147">
         <v>180</v>
@@ -5064,19 +5068,19 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B148" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C148" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D148">
-        <v>153.4444</v>
+        <v>160.02799999999999</v>
       </c>
       <c r="E148">
-        <v>-49.154000000000003</v>
+        <v>-50.3</v>
       </c>
       <c r="F148">
         <v>180</v>
@@ -5087,22 +5091,22 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B149" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C149" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D149">
-        <v>166.91249999999999</v>
+        <v>153.4444</v>
       </c>
       <c r="E149">
-        <v>-53.55</v>
+        <v>-49.154000000000003</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G149" t="s">
         <v>95</v>
@@ -5110,22 +5114,22 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B150" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C150" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D150">
-        <v>182.05</v>
+        <v>166.91249999999999</v>
       </c>
       <c r="E150">
-        <v>-97.2</v>
+        <v>-53.55</v>
       </c>
       <c r="F150">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G150" t="s">
         <v>95</v>
@@ -5133,22 +5137,22 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B151" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C151" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D151">
-        <v>198.3</v>
+        <v>182.05</v>
       </c>
       <c r="E151">
-        <v>-44.875999999999998</v>
+        <v>-97.2</v>
       </c>
       <c r="F151">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G151" t="s">
         <v>95</v>
@@ -5156,22 +5160,22 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B152" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C152" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D152">
-        <v>98.65</v>
+        <v>198.3</v>
       </c>
       <c r="E152">
-        <v>-63.35</v>
+        <v>-44.875999999999998</v>
       </c>
       <c r="F152">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G152" t="s">
         <v>95</v>
@@ -5179,22 +5183,22 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B153" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="C153" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="D153">
-        <v>123.24099</v>
+        <v>98.65</v>
       </c>
       <c r="E153">
-        <v>-53.396000000000001</v>
+        <v>-63.35</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="G153" t="s">
         <v>95</v>
@@ -5202,22 +5206,22 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B154" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C154" t="s">
         <v>57</v>
       </c>
       <c r="D154">
-        <v>135.89098999999999</v>
+        <v>123.24099</v>
       </c>
       <c r="E154">
-        <v>-54.945999999999998</v>
+        <v>-53.396000000000001</v>
       </c>
       <c r="F154">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
         <v>95</v>
@@ -5225,7 +5229,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B155" t="s">
         <v>56</v>
@@ -5234,7 +5238,7 @@
         <v>57</v>
       </c>
       <c r="D155">
-        <v>137.69099</v>
+        <v>135.89098999999999</v>
       </c>
       <c r="E155">
         <v>-54.945999999999998</v>
@@ -5248,19 +5252,19 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B156" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="C156" t="s">
         <v>57</v>
       </c>
       <c r="D156">
-        <v>199.93879999999999</v>
+        <v>137.69099</v>
       </c>
       <c r="E156">
-        <v>-33.441200000000002</v>
+        <v>-54.945999999999998</v>
       </c>
       <c r="F156">
         <v>90</v>
@@ -5271,22 +5275,22 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B157" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C157" t="s">
         <v>57</v>
       </c>
       <c r="D157">
-        <v>92.9</v>
+        <v>199.93879999999999</v>
       </c>
       <c r="E157">
-        <v>-50.95</v>
+        <v>-33.441200000000002</v>
       </c>
       <c r="F157">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G157" t="s">
         <v>95</v>
@@ -5294,22 +5298,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B158" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="C158" t="s">
         <v>57</v>
       </c>
       <c r="D158">
-        <v>94.75</v>
+        <v>92.9</v>
       </c>
       <c r="E158">
-        <v>-51</v>
+        <v>-50.95</v>
       </c>
       <c r="F158">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G158" t="s">
         <v>95</v>
@@ -5317,22 +5321,22 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B159" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C159" t="s">
         <v>57</v>
       </c>
       <c r="D159">
-        <v>107.3</v>
+        <v>94.75</v>
       </c>
       <c r="E159">
-        <v>-83.25</v>
+        <v>-51</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G159" t="s">
         <v>95</v>
@@ -5340,19 +5344,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B160" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C160" t="s">
         <v>57</v>
       </c>
       <c r="D160">
-        <v>133.6</v>
+        <v>107.3</v>
       </c>
       <c r="E160">
-        <v>-47.25</v>
+        <v>-83.25</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -5363,7 +5367,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B161" t="s">
         <v>60</v>
@@ -5372,13 +5376,13 @@
         <v>57</v>
       </c>
       <c r="D161">
-        <v>167.97919999999999</v>
+        <v>133.6</v>
       </c>
       <c r="E161">
-        <v>-47.293999999999997</v>
+        <v>-47.25</v>
       </c>
       <c r="F161">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G161" t="s">
         <v>95</v>
@@ -5386,22 +5390,22 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B162" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="C162" t="s">
         <v>57</v>
       </c>
       <c r="D162">
-        <v>167.95359999999999</v>
+        <v>167.97919999999999</v>
       </c>
       <c r="E162">
-        <v>-49.560400000000001</v>
+        <v>-47.293999999999997</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G162" t="s">
         <v>95</v>
@@ -5409,22 +5413,22 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B163" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="C163" t="s">
         <v>57</v>
       </c>
       <c r="D163">
-        <v>159.05000000000001</v>
+        <v>167.95359999999999</v>
       </c>
       <c r="E163">
-        <v>-58.05</v>
+        <v>-49.560400000000001</v>
       </c>
       <c r="F163">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="G163" t="s">
         <v>95</v>
@@ -5432,7 +5436,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B164" t="s">
         <v>60</v>
@@ -5441,13 +5445,13 @@
         <v>57</v>
       </c>
       <c r="D164">
-        <v>164.55</v>
+        <v>159.05000000000001</v>
       </c>
       <c r="E164">
-        <v>-46.65</v>
+        <v>-58.05</v>
       </c>
       <c r="F164">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="G164" t="s">
         <v>95</v>
@@ -5455,19 +5459,19 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B165" t="s">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="C165" t="s">
         <v>57</v>
       </c>
       <c r="D165">
-        <v>121.50901</v>
+        <v>164.55</v>
       </c>
       <c r="E165">
-        <v>-81.6036</v>
+        <v>-46.65</v>
       </c>
       <c r="F165">
         <v>180</v>
@@ -5478,7 +5482,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B166" t="s">
         <v>224</v>
@@ -5487,10 +5491,10 @@
         <v>57</v>
       </c>
       <c r="D166">
-        <v>123.25</v>
+        <v>121.50901</v>
       </c>
       <c r="E166">
-        <v>-86.55</v>
+        <v>-81.6036</v>
       </c>
       <c r="F166">
         <v>180</v>
@@ -5501,7 +5505,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B167" t="s">
         <v>224</v>
@@ -5510,13 +5514,13 @@
         <v>57</v>
       </c>
       <c r="D167">
-        <v>153.6</v>
+        <v>123.25</v>
       </c>
       <c r="E167">
-        <v>-87.35</v>
+        <v>-86.55</v>
       </c>
       <c r="F167">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G167" t="s">
         <v>95</v>
@@ -5524,7 +5528,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B168" t="s">
         <v>224</v>
@@ -5533,13 +5537,13 @@
         <v>57</v>
       </c>
       <c r="D168">
-        <v>154.05000000000001</v>
+        <v>153.6</v>
       </c>
       <c r="E168">
-        <v>-76.900000000000006</v>
+        <v>-87.35</v>
       </c>
       <c r="F168">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G168" t="s">
         <v>95</v>
@@ -5547,22 +5551,22 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B169" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C169" t="s">
         <v>57</v>
       </c>
       <c r="D169">
-        <v>140.69999999999999</v>
+        <v>154.05000000000001</v>
       </c>
       <c r="E169">
-        <v>-88.2</v>
+        <v>-76.900000000000006</v>
       </c>
       <c r="F169">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G169" t="s">
         <v>95</v>
@@ -5570,7 +5574,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B170" t="s">
         <v>229</v>
@@ -5582,7 +5586,7 @@
         <v>140.69999999999999</v>
       </c>
       <c r="E170">
-        <v>-90.35</v>
+        <v>-88.2</v>
       </c>
       <c r="F170">
         <v>180</v>
@@ -5593,7 +5597,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B171" t="s">
         <v>229</v>
@@ -5602,10 +5606,10 @@
         <v>57</v>
       </c>
       <c r="D171">
-        <v>106.8</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E171">
-        <v>-87.65</v>
+        <v>-90.35</v>
       </c>
       <c r="F171">
         <v>180</v>
@@ -5616,7 +5620,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B172" t="s">
         <v>229</v>
@@ -5628,7 +5632,7 @@
         <v>106.8</v>
       </c>
       <c r="E172">
-        <v>-89.7</v>
+        <v>-87.65</v>
       </c>
       <c r="F172">
         <v>180</v>
@@ -5639,7 +5643,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B173" t="s">
         <v>229</v>
@@ -5648,10 +5652,10 @@
         <v>57</v>
       </c>
       <c r="D173">
-        <v>124.05</v>
+        <v>106.8</v>
       </c>
       <c r="E173">
-        <v>-88.8</v>
+        <v>-89.7</v>
       </c>
       <c r="F173">
         <v>180</v>
@@ -5662,7 +5666,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B174" t="s">
         <v>229</v>
@@ -5671,10 +5675,10 @@
         <v>57</v>
       </c>
       <c r="D174">
-        <v>158.1</v>
+        <v>124.05</v>
       </c>
       <c r="E174">
-        <v>-88.95</v>
+        <v>-88.8</v>
       </c>
       <c r="F174">
         <v>180</v>
@@ -5685,7 +5689,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B175" t="s">
         <v>229</v>
@@ -5694,10 +5698,10 @@
         <v>57</v>
       </c>
       <c r="D175">
-        <v>124.05</v>
+        <v>158.1</v>
       </c>
       <c r="E175">
-        <v>-90.4</v>
+        <v>-88.95</v>
       </c>
       <c r="F175">
         <v>180</v>
@@ -5708,7 +5712,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B176" t="s">
         <v>229</v>
@@ -5717,10 +5721,10 @@
         <v>57</v>
       </c>
       <c r="D176">
-        <v>158.1</v>
+        <v>124.05</v>
       </c>
       <c r="E176">
-        <v>-90.55</v>
+        <v>-90.4</v>
       </c>
       <c r="F176">
         <v>180</v>
@@ -5731,22 +5735,22 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B177" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C177" t="s">
         <v>57</v>
       </c>
       <c r="D177">
-        <v>104.35</v>
+        <v>158.1</v>
       </c>
       <c r="E177">
-        <v>-79.3</v>
+        <v>-90.55</v>
       </c>
       <c r="F177">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G177" t="s">
         <v>95</v>
@@ -5754,22 +5758,22 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B178" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C178" t="s">
         <v>57</v>
       </c>
       <c r="D178">
-        <v>102.65</v>
+        <v>104.35</v>
       </c>
       <c r="E178">
         <v>-79.3</v>
       </c>
       <c r="F178">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G178" t="s">
         <v>95</v>
@@ -5777,22 +5781,22 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B179" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="C179" t="s">
         <v>57</v>
       </c>
       <c r="D179">
-        <v>176.95</v>
+        <v>102.65</v>
       </c>
       <c r="E179">
-        <v>-88.2</v>
+        <v>-79.3</v>
       </c>
       <c r="F179">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G179" t="s">
         <v>95</v>
@@ -5800,7 +5804,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B180" t="s">
         <v>60</v>
@@ -5809,7 +5813,7 @@
         <v>57</v>
       </c>
       <c r="D180">
-        <v>178.8</v>
+        <v>176.95</v>
       </c>
       <c r="E180">
         <v>-88.2</v>
@@ -5823,7 +5827,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B181" t="s">
         <v>60</v>
@@ -5832,7 +5836,7 @@
         <v>57</v>
       </c>
       <c r="D181">
-        <v>180.4</v>
+        <v>178.8</v>
       </c>
       <c r="E181">
         <v>-88.2</v>
@@ -5846,7 +5850,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B182" t="s">
         <v>60</v>
@@ -5855,13 +5859,13 @@
         <v>57</v>
       </c>
       <c r="D182">
-        <v>181.05</v>
+        <v>180.4</v>
       </c>
       <c r="E182">
-        <v>-76.14</v>
+        <v>-88.2</v>
       </c>
       <c r="F182">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G182" t="s">
         <v>95</v>
@@ -5869,7 +5873,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B183" t="s">
         <v>60</v>
@@ -5878,7 +5882,7 @@
         <v>57</v>
       </c>
       <c r="D183">
-        <v>179.55</v>
+        <v>181.05</v>
       </c>
       <c r="E183">
         <v>-76.14</v>
@@ -5892,7 +5896,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B184" t="s">
         <v>60</v>
@@ -5901,7 +5905,7 @@
         <v>57</v>
       </c>
       <c r="D184">
-        <v>177.5</v>
+        <v>179.55</v>
       </c>
       <c r="E184">
         <v>-76.14</v>
@@ -5915,22 +5919,22 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B185" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="C185" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="D185">
-        <v>98.95</v>
+        <v>177.5</v>
       </c>
       <c r="E185">
-        <v>-51.05</v>
+        <v>-76.14</v>
       </c>
       <c r="F185">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G185" t="s">
         <v>95</v>
@@ -5938,19 +5942,19 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B186" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C186" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="D186">
-        <v>192.8989</v>
+        <v>98.95</v>
       </c>
       <c r="E186">
-        <v>-54.671399999999998</v>
+        <v>-51.05</v>
       </c>
       <c r="F186">
         <v>180</v>
@@ -5961,22 +5965,22 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B187" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C187" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D187">
-        <v>124.756007</v>
+        <v>192.8989</v>
       </c>
       <c r="E187">
-        <v>-82.1036</v>
+        <v>-54.671399999999998</v>
       </c>
       <c r="F187">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G187" t="s">
         <v>95</v>
@@ -5984,7 +5988,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B188" t="s">
         <v>253</v>
@@ -5993,10 +5997,10 @@
         <v>254</v>
       </c>
       <c r="D188">
-        <v>154.55600699999999</v>
+        <v>124.756007</v>
       </c>
       <c r="E188">
-        <v>-82.203599999999994</v>
+        <v>-82.1036</v>
       </c>
       <c r="F188">
         <v>90</v>
@@ -6007,22 +6011,22 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B189" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C189" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D189">
-        <v>114.55</v>
+        <v>154.55600699999999</v>
       </c>
       <c r="E189">
-        <v>-92</v>
+        <v>-82.203599999999994</v>
       </c>
       <c r="F189">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G189" t="s">
         <v>95</v>
@@ -6030,7 +6034,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B190" t="s">
         <v>257</v>
@@ -6039,7 +6043,7 @@
         <v>258</v>
       </c>
       <c r="D190">
-        <v>147.75</v>
+        <v>114.55</v>
       </c>
       <c r="E190">
         <v>-92</v>
@@ -6053,7 +6057,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B191" t="s">
         <v>257</v>
@@ -6062,7 +6066,7 @@
         <v>258</v>
       </c>
       <c r="D191">
-        <v>131.05000000000001</v>
+        <v>147.75</v>
       </c>
       <c r="E191">
         <v>-92</v>
@@ -6076,7 +6080,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B192" t="s">
         <v>257</v>
@@ -6085,7 +6089,7 @@
         <v>258</v>
       </c>
       <c r="D192">
-        <v>164.67500000000001</v>
+        <v>131.05000000000001</v>
       </c>
       <c r="E192">
         <v>-92</v>
@@ -6099,22 +6103,22 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B193" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C193" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D193">
-        <v>96</v>
+        <v>164.67500000000001</v>
       </c>
       <c r="E193">
-        <v>-80.8</v>
+        <v>-92</v>
       </c>
       <c r="F193">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="G193" t="s">
         <v>95</v>
@@ -6122,19 +6126,19 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B194" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C194" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D194">
-        <v>192.98</v>
+        <v>96</v>
       </c>
       <c r="E194">
-        <v>-28.352</v>
+        <v>-80.8</v>
       </c>
       <c r="F194">
         <v>180</v>
@@ -6145,24 +6149,47 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B195" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C195" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D195">
-        <v>129.80000000000001</v>
+        <v>192.98</v>
       </c>
       <c r="E195">
-        <v>-55.1</v>
+        <v>-28.352</v>
       </c>
       <c r="F195">
         <v>180</v>
       </c>
       <c r="G195" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>268</v>
+      </c>
+      <c r="B196" t="s">
+        <v>269</v>
+      </c>
+      <c r="C196" t="s">
+        <v>270</v>
+      </c>
+      <c r="D196">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="E196">
+        <v>-55.1</v>
+      </c>
+      <c r="F196">
+        <v>180</v>
+      </c>
+      <c r="G196" t="s">
         <v>95</v>
       </c>
     </row>
